--- a/SALT/NaCl-UCl3-comparisons.xlsx
+++ b/SALT/NaCl-UCl3-comparisons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B3A7192-DFCD-7A48-862B-D29A2173CC52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DB3767-5B40-8044-A90A-1CD3E30D0E21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23740" yWindow="8560" windowWidth="26040" windowHeight="14940" xr2:uid="{9B86A04C-0566-FC47-BA89-C70F582F63B3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>T1</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Janz</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>DF2-big cell</t>
   </si>
 </sst>
 </file>
@@ -646,6 +652,88 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-F16B-5845-B340-8762C0DA5C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.5355355975644251</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4993190696641996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4178211026892538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F16B-5845-B340-8762C0DA5C1A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1732,15 +1820,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B50945-AAE0-BA48-9694-B220426BCB1A}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1771,8 +1859,14 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>996.15384615384596</v>
       </c>
@@ -1804,8 +1898,14 @@
         <f>2.1389-0.0005426*I2</f>
         <v>1.5528919999999999</v>
       </c>
+      <c r="K2">
+        <v>1100</v>
+      </c>
+      <c r="L2">
+        <v>1.5355355975644251</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1097.2527472527399</v>
       </c>
@@ -1837,8 +1937,14 @@
         <f t="shared" ref="J3:J5" si="0">2.1389-0.0005426*I3</f>
         <v>1.5420400000000001</v>
       </c>
+      <c r="K3">
+        <v>1250</v>
+      </c>
+      <c r="L3">
+        <v>1.4993190696641996</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1246.7032967032901</v>
       </c>
@@ -1864,8 +1970,14 @@
         <f t="shared" si="0"/>
         <v>1.4877800000000001</v>
       </c>
+      <c r="K4">
+        <v>1400</v>
+      </c>
+      <c r="L4">
+        <v>1.4178211026892538</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1346.7032967032901</v>
       </c>
@@ -1891,8 +2003,11 @@
         <f t="shared" si="0"/>
         <v>1.4335200000000001</v>
       </c>
+      <c r="K5">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1496.15384615384</v>
       </c>

--- a/SALT/NaCl-UCl3-comparisons.xlsx
+++ b/SALT/NaCl-UCl3-comparisons.xlsx
@@ -1,24 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DB3767-5B40-8044-A90A-1CD3E30D0E21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A301C790-FAC2-3245-9067-2C02BA4A1627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23740" yWindow="8560" windowWidth="26040" windowHeight="14940" xr2:uid="{9B86A04C-0566-FC47-BA89-C70F582F63B3}"/>
+    <workbookView xWindow="10200" yWindow="5480" windowWidth="26040" windowHeight="14940" xr2:uid="{9B86A04C-0566-FC47-BA89-C70F582F63B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$K$2:$K$4</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$L$2:$L$4</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$2:$A$6</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$2:$C$6</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$D$2:$D$6</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$E$2:$E$3</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$F$2:$F$3</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$G$2:$G$5</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$H$2:$H$5</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$6</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$I$2:$I$5</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$J$2:$J$5</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$K$2:$K$4</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$L$2:$L$4</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$A$2:$A$6</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$C$2:$C$6</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$D$2:$D$6</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$E$2:$E$3</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$F$2:$F$3</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$2:$D$6</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$G$2:$G$5</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$H$2:$H$5</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$I$2:$I$5</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$J$2:$J$5</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$K$2:$K$4</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$L$2:$L$4</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$A$2:$A$6</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$C$2:$C$6</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$D$2:$D$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$E$2:$E$3</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$E$2:$E$3</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$F$2:$F$3</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$G$2:$G$5</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$H$2:$H$5</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$I$2:$I$5</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$J$2:$J$5</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$K$2:$K$4</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$L$2:$L$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$2:$F$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$2:$G$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$H$2:$H$5</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$I$2:$I$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$J$2:$J$5</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -30,25 +89,13 @@
     <t>T1</t>
   </si>
   <si>
-    <t>D3</t>
-  </si>
-  <si>
     <t>T2</t>
-  </si>
-  <si>
-    <t>dDsC</t>
   </si>
   <si>
     <t>T4</t>
   </si>
   <si>
-    <t>DFT</t>
-  </si>
-  <si>
     <t>T5</t>
-  </si>
-  <si>
-    <t>DF2</t>
   </si>
   <si>
     <t>T</t>
@@ -62,12 +109,24 @@
   <si>
     <t>DF2-big cell</t>
   </si>
+  <si>
+    <t>DFT-PBE</t>
+  </si>
+  <si>
+    <t>DDsC</t>
+  </si>
+  <si>
+    <t>DFT-D3</t>
+  </si>
+  <si>
+    <t>vdW-DF2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,78 +197,29 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DDsC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.8943788276465439E-2"/>
-                  <c:y val="-0.20881525226013414"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$6</c:f>
@@ -268,78 +278,29 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Janz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.3585301837270342E-2"/>
-                  <c:y val="3.2131816856226306E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$I$2:$I$5</c:f>
@@ -392,78 +353,29 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vdW-DF2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.6209536307961502E-3"/>
-                  <c:y val="4.6120589093030039E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$G$2:$G$5</c:f>
@@ -516,27 +428,28 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFT-D3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -596,27 +509,28 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFT-PBE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -652,88 +566,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-F16B-5845-B340-8762C0DA5C1A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$K$2:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$L$2:$L$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.5355355975644251</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4993190696641996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4178211026892538</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-F16B-5845-B340-8762C0DA5C1A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -752,24 +584,66 @@
         <c:axId val="505108911"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1600"/>
           <c:min val="900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature (K)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -792,16 +666,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -815,24 +689,65 @@
         <c:axId val="469360351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1.2"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Density (g/cc)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -855,16 +770,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -877,11 +792,54 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20268022747156605"/>
+          <c:y val="0.33883776246719161"/>
+          <c:w val="0.25009755030621172"/>
+          <c:h val="0.44385225284339458"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-    </c:plotArea>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -898,12 +856,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -913,7 +866,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1486,16 +1442,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1823,50 +1779,50 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>996.15384615384596</v>
       </c>
@@ -1905,7 +1861,7 @@
         <v>1.5355355975644251</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1097.2527472527399</v>
       </c>
@@ -1944,7 +1900,7 @@
         <v>1.4993190696641996</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1246.7032967032901</v>
       </c>
@@ -1977,7 +1933,7 @@
         <v>1.4178211026892538</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1346.7032967032901</v>
       </c>
@@ -2007,7 +1963,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1496.15384615384</v>
       </c>
